--- a/Input_Files/Peirson_IcePhenoDates_AVG_20250120.xlsx
+++ b/Input_Files/Peirson_IcePhenoDates_AVG_20250120.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365coloradoedu-my.sharepoint.com/personal/kaga3666_colorado_edu/Documents/Graduate_School/05_Research_Projects/01_Oxygen_Under_Ice/01_Data/Output_Files/Ice_Phenology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Gagers/Documents/Thesis and Lab/Ice Phenology Project/Ice_Pheno/Input_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8E6AFDCE8F79A8536E3CA493EAF4A2B7BC59B61F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746F8E74-ED23-244F-B13A-7D8AE3B227CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="23840" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="23840" windowHeight="15260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Lake_WaterYear</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Ice_On_Peirson</t>
   </si>
@@ -31,61 +28,7 @@
     <t>Ice_Off_Peirson</t>
   </si>
   <si>
-    <t>GL4_2019</t>
-  </si>
-  <si>
-    <t>GL4_2020</t>
-  </si>
-  <si>
-    <t>GL4_2023</t>
-  </si>
-  <si>
-    <t>LOC_2017</t>
-  </si>
-  <si>
-    <t>LOC_2018</t>
-  </si>
-  <si>
-    <t>LOC_2019</t>
-  </si>
-  <si>
-    <t>LOC_2020</t>
-  </si>
-  <si>
-    <t>LOC_2021</t>
-  </si>
-  <si>
-    <t>LOC_2022</t>
-  </si>
-  <si>
-    <t>LOC_2023</t>
-  </si>
-  <si>
-    <t>LOC_2024</t>
-  </si>
-  <si>
-    <t>SKY_2017</t>
-  </si>
-  <si>
-    <t>SKY_2018</t>
-  </si>
-  <si>
-    <t>SKY_2019</t>
-  </si>
-  <si>
-    <t>SKY_2020</t>
-  </si>
-  <si>
-    <t>SKY_2021</t>
-  </si>
-  <si>
-    <t>SKY_2022</t>
-  </si>
-  <si>
-    <t>SKY_2023</t>
-  </si>
-  <si>
-    <t>SKY_2024</t>
+    <t>waterYear</t>
   </si>
 </sst>
 </file>
@@ -442,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -455,210 +398,95 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>2017</v>
       </c>
       <c r="B2" s="2">
-        <v>43383</v>
+        <v>42649</v>
       </c>
       <c r="C2" s="2">
-        <v>43670</v>
+        <v>42929</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3">
+        <v>2018</v>
       </c>
       <c r="B3" s="2">
-        <v>43761</v>
+        <v>43035</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43241</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
+      <c r="A4">
+        <v>2019</v>
       </c>
       <c r="B4" s="2">
+        <v>43417</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="2">
+        <v>44121</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="2">
+        <v>44481</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44720</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="2">
         <v>44850</v>
       </c>
-      <c r="C4" s="2">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>42649</v>
-      </c>
-      <c r="C5" s="2">
-        <v>42929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43035</v>
-      </c>
-      <c r="C6" s="2">
-        <v>43241</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43417</v>
-      </c>
-      <c r="C7" s="2">
-        <v>43641</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
+      <c r="C8" s="2">
+        <v>45091</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
+      <c r="A9">
+        <v>2024</v>
       </c>
       <c r="B9" s="2">
-        <v>44121</v>
+        <v>45227</v>
       </c>
       <c r="C9" s="2">
-        <v>44361</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>44481</v>
-      </c>
-      <c r="C10" s="2">
-        <v>44720</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44850</v>
-      </c>
-      <c r="C11" s="2">
-        <v>45091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45227</v>
-      </c>
-      <c r="C12" s="2">
         <v>45453</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2">
-        <v>42649</v>
-      </c>
-      <c r="C13" s="2">
-        <v>42907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43014</v>
-      </c>
-      <c r="C14" s="2">
-        <v>43251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43368</v>
-      </c>
-      <c r="C15" s="2">
-        <v>43649</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="2">
-        <v>43748</v>
-      </c>
-      <c r="C16" s="2">
-        <v>43994</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="2">
-        <v>44128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="2">
-        <v>44511</v>
-      </c>
-      <c r="C18" s="2">
-        <v>44727</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="2">
-        <v>44850</v>
-      </c>
-      <c r="C19" s="2">
-        <v>45100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="2">
-        <v>45221</v>
-      </c>
-      <c r="C20" s="2">
-        <v>45463</v>
       </c>
     </row>
   </sheetData>
